--- a/biology/Botanique/Eragrostis_palustris/Eragrostis_palustris.xlsx
+++ b/biology/Botanique/Eragrostis_palustris/Eragrostis_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eragrostis palustris est une espèce de plantes à fleurs monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, endémique d'Afrique occidentale tropicale[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eragrostis palustris est une espèce de plantes à fleurs monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, endémique d'Afrique occidentale tropicale,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eragrostis palustris est une plante herbacée  pérenne, densément cespiteuse, aux tiges (chaumes) de 90 à 110 cm de long et aux inflorescences en panicules.
 </t>
@@ -542,10 +556,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition d' Eragrostis palustris est limitée à l'Afrique occidentale, de la Guinée au Nigeria et au Cameroun[4],[5],[6]. Au Cameroun, elle est présente dans la zone soudanienne et sur le plateau de l'Adamaoua[4]. Elle a été collectée notamment dans la localité de Laindé Massa, à Garoua, dans la région du Nord.
-Cette espèce se rencontre dans les zones marécageuses (d'où l'épithète spécifique « palustris »)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition d' Eragrostis palustris est limitée à l'Afrique occidentale, de la Guinée au Nigeria et au Cameroun. Au Cameroun, elle est présente dans la zone soudanienne et sur le plateau de l'Adamaoua. Elle a été collectée notamment dans la localité de Laindé Massa, à Garoua, dans la région du Nord.
+Cette espèce se rencontre dans les zones marécageuses (d'où l'épithète spécifique « palustris »).
 </t>
         </is>
       </c>
